--- a/var_calls_5x5_MIT9313.xlsx
+++ b/var_calls_5x5_MIT9313.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wosnat\Documents\GitHub\ccpa\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16846C5A-F9BC-436A-92D9-39AD893291B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="MIT9313 calls" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MIT9313 calls'!$A$6:$BC$47</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1087,8 +1078,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1140,12 +1134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1155,14 +1146,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1209,7 +1192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1241,27 +1224,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1293,24 +1258,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1486,24 +1433,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
-    <col min="18" max="18" width="68.5703125" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" customWidth="1"/>
     <col min="19" max="20" width="9.140625" style="1"/>
     <col min="31" max="35" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -1562,57 +1505,57 @@
       <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3" t="s">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3" t="s">
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3" t="s">
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3" t="s">
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3" t="s">
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1635,57 +1578,57 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="s">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3" t="s">
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3" t="s">
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3" t="s">
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3" t="s">
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3" t="s">
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1711,68 +1654,68 @@
       <c r="U3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
       <c r="AE3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AF3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
       <c r="AJ3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AK3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
       <c r="AO3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AP3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
       <c r="AT3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AU3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
       <c r="AY3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1798,82 +1741,82 @@
       <c r="U4" s="2">
         <v>0</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <v>100</v>
       </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2">
         <v>440</v>
       </c>
-      <c r="Y4" s="3"/>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2">
         <v>0</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="2">
         <v>100</v>
       </c>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3">
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2">
         <v>440</v>
       </c>
-      <c r="AD4" s="3"/>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2">
         <v>0</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AF4" s="2">
         <v>100</v>
       </c>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3">
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2">
         <v>440</v>
       </c>
-      <c r="AI4" s="3"/>
+      <c r="AI4" s="2"/>
       <c r="AJ4" s="2">
         <v>0</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AK4" s="2">
         <v>100</v>
       </c>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3">
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2">
         <v>440</v>
       </c>
-      <c r="AN4" s="3"/>
+      <c r="AN4" s="2"/>
       <c r="AO4" s="2">
         <v>0</v>
       </c>
-      <c r="AP4" s="3">
+      <c r="AP4" s="2">
         <v>100</v>
       </c>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3">
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2">
         <v>440</v>
       </c>
-      <c r="AS4" s="3"/>
+      <c r="AS4" s="2"/>
       <c r="AT4" s="2">
         <v>0</v>
       </c>
-      <c r="AU4" s="3">
+      <c r="AU4" s="2">
         <v>100</v>
       </c>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3">
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2">
         <v>440</v>
       </c>
-      <c r="AX4" s="3"/>
+      <c r="AX4" s="2"/>
       <c r="AY4" s="2">
         <v>0</v>
       </c>
-      <c r="AZ4" s="3">
+      <c r="AZ4" s="2">
         <v>100</v>
       </c>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3">
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2">
         <v>440</v>
       </c>
-      <c r="BC4" s="3"/>
+      <c r="BC4" s="2"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2002,7 +1945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2082,7 +2025,7 @@
         <v>39</v>
       </c>
       <c r="AE7" s="1">
-        <v>0.94594594594594594</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="1">
         <v>0.6</v>
@@ -2091,25 +2034,25 @@
         <v>1</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.26470588235294118</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="AI7" s="1">
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK7">
         <v>10</v>
       </c>
       <c r="AL7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AN7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO7">
         <v>35</v>
@@ -2118,16 +2061,16 @@
         <v>6</v>
       </c>
       <c r="AQ7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS7">
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU7">
         <v>4</v>
@@ -2136,28 +2079,28 @@
         <v>0</v>
       </c>
       <c r="AW7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AY7">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="AZ7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="BA7">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="BB7">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="BC7">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -2213,10 +2156,10 @@
         <v>325</v>
       </c>
       <c r="S8" s="1">
-        <v>0.24260019064281699</v>
+        <v>0.242600190642817</v>
       </c>
       <c r="T8" s="1">
-        <v>-0.50509784578192352</v>
+        <v>-0.5050978457819235</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2249,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="AG8" s="1">
-        <v>0.29411764705882348</v>
+        <v>0.3125</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.56756756756756754</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="AI8" s="1">
         <v>1</v>
@@ -2261,13 +2204,13 @@
         <v>26</v>
       </c>
       <c r="AL8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -2276,16 +2219,16 @@
         <v>5</v>
       </c>
       <c r="AR8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AT8">
         <v>26</v>
       </c>
       <c r="AV8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW8">
         <v>16</v>
@@ -2294,19 +2237,19 @@
         <v>0</v>
       </c>
       <c r="AY8">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="BA8">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="BB8">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="BC8">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -2362,10 +2305,10 @@
         <v>326</v>
       </c>
       <c r="S9" s="1">
-        <v>0.96670456880831102</v>
+        <v>0.966704568808311</v>
       </c>
       <c r="T9" s="1">
-        <v>-0.97339908098301153</v>
+        <v>-0.9733990809830115</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2404,13 +2347,13 @@
         <v>0.3125</v>
       </c>
       <c r="AH9" s="1">
-        <v>0.61764705882352944</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="AI9" s="1">
         <v>1</v>
       </c>
       <c r="AJ9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK9">
         <v>4</v>
@@ -2419,10 +2362,10 @@
         <v>16</v>
       </c>
       <c r="AM9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AN9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -2434,13 +2377,13 @@
         <v>5</v>
       </c>
       <c r="AR9">
+        <v>18</v>
+      </c>
+      <c r="AS9">
         <v>21</v>
       </c>
-      <c r="AS9">
-        <v>23</v>
-      </c>
       <c r="AT9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AU9">
         <v>4</v>
@@ -2449,28 +2392,28 @@
         <v>11</v>
       </c>
       <c r="AW9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX9">
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="AZ9">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="BA9">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="BB9">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="BC9">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -2526,10 +2469,10 @@
         <v>327</v>
       </c>
       <c r="S10" s="1">
-        <v>0.49567277882015498</v>
+        <v>0.495672778820155</v>
       </c>
       <c r="T10" s="1">
-        <v>-0.62258194718765847</v>
+        <v>-0.6225819471876585</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -2568,7 +2511,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AI10" s="1">
         <v>0</v>
@@ -2583,10 +2526,10 @@
         <v>14</v>
       </c>
       <c r="AM10">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AN10">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO10">
         <v>29</v>
@@ -2598,7 +2541,7 @@
         <v>12</v>
       </c>
       <c r="AR10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -2613,28 +2556,28 @@
         <v>2</v>
       </c>
       <c r="AW10">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AX10">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AY10">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AZ10">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="BA10">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="BB10">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="BC10">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55">
       <c r="A11" s="2">
         <v>13</v>
       </c>
@@ -2690,7 +2633,7 @@
         <v>328</v>
       </c>
       <c r="S11" s="1">
-        <v>0.10868519664984801</v>
+        <v>0.108685196649848</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -2726,13 +2669,13 @@
         <v>1</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AG11" s="1">
         <v>0.6</v>
       </c>
       <c r="AH11" s="1">
-        <v>0.35483870967741937</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="AI11" s="1">
         <v>0</v>
@@ -2750,7 +2693,7 @@
         <v>31</v>
       </c>
       <c r="AN11">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AO11">
         <v>21</v>
@@ -2780,25 +2723,25 @@
         <v>20</v>
       </c>
       <c r="AX11">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AY11">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="AZ11">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="BA11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BB11">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="BC11">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55">
       <c r="A12" s="2">
         <v>16</v>
       </c>
@@ -2854,10 +2797,10 @@
         <v>329</v>
       </c>
       <c r="S12" s="1">
-        <v>0.68953321422237701</v>
+        <v>0.689533214222377</v>
       </c>
       <c r="T12" s="1">
-        <v>-0.72853455755739949</v>
+        <v>-0.7285345575573995</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -2884,7 +2827,7 @@
         <v>39</v>
       </c>
       <c r="AE12" s="1">
-        <v>0.94285714285714284</v>
+        <v>0.9375</v>
       </c>
       <c r="AF12" s="1">
         <v>1</v>
@@ -2899,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AK12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL12">
         <v>5</v>
@@ -2914,7 +2857,7 @@
         <v>37</v>
       </c>
       <c r="AO12">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AP12">
         <v>2</v>
@@ -2944,22 +2887,22 @@
         <v>37</v>
       </c>
       <c r="AY12">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AZ12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="BB12">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="BC12">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55">
       <c r="A13" s="2">
         <v>19</v>
       </c>
@@ -3015,10 +2958,10 @@
         <v>330</v>
       </c>
       <c r="S13" s="1">
-        <v>9.7246260228533804E-2</v>
+        <v>0.0972462602285338</v>
       </c>
       <c r="T13" s="1">
-        <v>-6.1374420006326778E-2</v>
+        <v>-0.06137442000632678</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -3036,7 +2979,7 @@
         <v>42</v>
       </c>
       <c r="AB13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC13" t="s">
         <v>39</v>
@@ -3051,76 +2994,76 @@
         <v>1</v>
       </c>
       <c r="AG13" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.3888888888888889</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AI13" s="1">
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AN13">
+        <v>19</v>
+      </c>
+      <c r="AO13">
+        <v>37</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>12</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
         <v>21</v>
       </c>
-      <c r="AO13">
-        <v>38</v>
-      </c>
-      <c r="AP13">
-        <v>4</v>
-      </c>
-      <c r="AQ13">
-        <v>2</v>
-      </c>
-      <c r="AR13">
-        <v>14</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>2</v>
-      </c>
-      <c r="AW13">
-        <v>22</v>
-      </c>
       <c r="AX13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY13">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AZ13">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="BA13">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="BB13">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BC13">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -3176,10 +3119,10 @@
         <v>331</v>
       </c>
       <c r="S14" s="1">
-        <v>0.29275775210090899</v>
+        <v>0.292757752100909</v>
       </c>
       <c r="T14" s="1">
-        <v>1.464656353778573E-2</v>
+        <v>0.01464656353778573</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -3218,16 +3161,16 @@
         <v>0.8</v>
       </c>
       <c r="AG14" s="1">
-        <v>0.63636363636363635</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.23529411764705879</v>
+        <v>0.21875</v>
       </c>
       <c r="AI14" s="1">
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK14">
         <v>12</v>
@@ -3236,13 +3179,13 @@
         <v>11</v>
       </c>
       <c r="AM14">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AN14">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AO14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP14">
         <v>8</v>
@@ -3251,7 +3194,7 @@
         <v>7</v>
       </c>
       <c r="AR14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS14">
         <v>0</v>
@@ -3266,28 +3209,28 @@
         <v>4</v>
       </c>
       <c r="AW14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX14">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AY14">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AZ14">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="BA14">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="BB14">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="BC14">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55">
       <c r="A15" s="2">
         <v>21</v>
       </c>
@@ -3343,10 +3286,10 @@
         <v>331</v>
       </c>
       <c r="S15" s="1">
-        <v>0.29275775210090899</v>
+        <v>0.292757752100909</v>
       </c>
       <c r="T15" s="1">
-        <v>1.464656353778573E-2</v>
+        <v>0.01464656353778573</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -3379,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="AG15" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AH15" s="1">
-        <v>2.9411764705882349E-2</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.70454545454545459</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="AJ15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK15">
         <v>6</v>
@@ -3397,10 +3340,10 @@
         <v>6</v>
       </c>
       <c r="AM15">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AN15">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3415,10 +3358,10 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AT15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -3427,28 +3370,28 @@
         <v>4</v>
       </c>
       <c r="AW15">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AX15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY15">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="AZ15">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="BA15">
         <v>68</v>
       </c>
       <c r="BB15">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="BC15">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55">
       <c r="A16" s="2">
         <v>22</v>
       </c>
@@ -3504,10 +3447,10 @@
         <v>331</v>
       </c>
       <c r="S16" s="1">
-        <v>0.29275775210090899</v>
+        <v>0.292757752100909</v>
       </c>
       <c r="T16" s="1">
-        <v>1.464656353778573E-2</v>
+        <v>0.01464656353778573</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -3543,25 +3486,25 @@
         <v>0</v>
       </c>
       <c r="AH16" s="1">
-        <v>0.57777777777777772</v>
+        <v>0.575</v>
       </c>
       <c r="AI16" s="1">
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK16">
         <v>5</v>
       </c>
       <c r="AL16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM16">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN16">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3573,43 +3516,43 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS16">
         <v>0</v>
       </c>
       <c r="AT16">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AU16">
         <v>5</v>
       </c>
       <c r="AV16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX16">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AY16">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="AZ16">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="BA16">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="BB16">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="BC16">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55">
       <c r="A17" s="2">
         <v>23</v>
       </c>
@@ -3665,10 +3608,10 @@
         <v>332</v>
       </c>
       <c r="S17" s="1">
-        <v>9.8748364464918803E-2</v>
+        <v>0.0987483644649188</v>
       </c>
       <c r="T17" s="1">
-        <v>-0.18434591228941261</v>
+        <v>-0.1843459122894126</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3701,31 +3644,31 @@
         <v>1</v>
       </c>
       <c r="AG17" s="1">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AH17" s="1">
-        <v>0.39583333333333331</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AI17" s="1">
         <v>0</v>
       </c>
       <c r="AJ17">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK17">
         <v>6</v>
       </c>
       <c r="AL17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM17">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AN17">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AO17">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP17">
         <v>6</v>
@@ -3734,7 +3677,7 @@
         <v>2</v>
       </c>
       <c r="AR17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS17">
         <v>0</v>
@@ -3746,13 +3689,13 @@
         <v>0</v>
       </c>
       <c r="AV17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW17">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AX17">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AY17">
         <v>160</v>
@@ -3761,7 +3704,7 @@
         <v>160</v>
       </c>
       <c r="BA17">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="BB17">
         <v>160</v>
@@ -3770,7 +3713,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55">
       <c r="A18" s="2">
         <v>24</v>
       </c>
@@ -3826,7 +3769,7 @@
         <v>333</v>
       </c>
       <c r="S18" s="1">
-        <v>1.39958899216195E-2</v>
+        <v>0.0139958899216195</v>
       </c>
       <c r="T18" s="1">
         <v>0.1625389103595038</v>
@@ -3859,7 +3802,7 @@
         <v>41</v>
       </c>
       <c r="AE18" s="1">
-        <v>5.2631578947368418E-2</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="AF18" s="1">
         <v>0</v>
@@ -3868,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="AH18" s="1">
-        <v>0.69696969696969702</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="AI18" s="1">
         <v>1</v>
       </c>
       <c r="AJ18">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AK18">
         <v>8</v>
@@ -3883,10 +3826,10 @@
         <v>12</v>
       </c>
       <c r="AM18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AN18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AO18">
         <v>2</v>
@@ -3898,13 +3841,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AT18">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AU18">
         <v>8</v>
@@ -3934,7 +3877,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55">
       <c r="A19" s="2">
         <v>25</v>
       </c>
@@ -3990,7 +3933,7 @@
         <v>333</v>
       </c>
       <c r="S19" s="1">
-        <v>1.39958899216195E-2</v>
+        <v>0.0139958899216195</v>
       </c>
       <c r="T19" s="1">
         <v>0.1625389103595038</v>
@@ -4023,7 +3966,7 @@
         <v>41</v>
       </c>
       <c r="AE19" s="1">
-        <v>5.8823529411764712E-2</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="AF19" s="1">
         <v>0</v>
@@ -4032,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.67647058823529416</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="AI19" s="1">
         <v>1</v>
@@ -4047,10 +3990,10 @@
         <v>12</v>
       </c>
       <c r="AM19">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AN19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO19">
         <v>2</v>
@@ -4062,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT19">
         <v>32</v>
@@ -4077,7 +4020,7 @@
         <v>12</v>
       </c>
       <c r="AW19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -4098,7 +4041,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55">
       <c r="A20" s="2">
         <v>26</v>
       </c>
@@ -4154,10 +4097,10 @@
         <v>334</v>
       </c>
       <c r="S20" s="1">
-        <v>0.30399082096381602</v>
+        <v>0.303990820963816</v>
       </c>
       <c r="T20" s="1">
-        <v>-0.53277921126820571</v>
+        <v>-0.5327792112682057</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -4199,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.68421052631578949</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="AJ20">
         <v>14</v>
@@ -4211,10 +4154,10 @@
         <v>11</v>
       </c>
       <c r="AM20">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AN20">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -4229,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT20">
         <v>14</v>
@@ -4241,28 +4184,28 @@
         <v>11</v>
       </c>
       <c r="AW20">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AX20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY20">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AZ20">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="BA20">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="BB20">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="BC20">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55">
       <c r="A21" s="2">
         <v>31</v>
       </c>
@@ -4318,10 +4261,10 @@
         <v>335</v>
       </c>
       <c r="S21" s="1">
-        <v>0.41443811902406702</v>
+        <v>0.414438119024067</v>
       </c>
       <c r="T21" s="1">
-        <v>-0.61700953543700909</v>
+        <v>-0.6170095354370091</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4357,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="1">
-        <v>0.92307692307692313</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="AH21" s="1">
         <v>0.4642857142857143</v>
@@ -4366,28 +4309,28 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AK21">
         <v>6</v>
       </c>
       <c r="AL21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM21">
         <v>28</v>
       </c>
       <c r="AN21">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AO21">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AP21">
         <v>6</v>
       </c>
       <c r="AQ21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR21">
         <v>13</v>
@@ -4408,25 +4351,25 @@
         <v>15</v>
       </c>
       <c r="AX21">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AY21">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="AZ21">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="BA21">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="BB21">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="BC21">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55">
       <c r="A22" s="2">
         <v>32</v>
       </c>
@@ -4482,10 +4425,10 @@
         <v>336</v>
       </c>
       <c r="S22" s="1">
-        <v>2.7996806272536201E-2</v>
+        <v>0.0279968062725362</v>
       </c>
       <c r="T22" s="1">
-        <v>3.0367255464857999E-2</v>
+        <v>0.030367255464858</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -4518,19 +4461,19 @@
         <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AG22" s="1">
         <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>0.68571428571428572</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="AI22" s="1">
         <v>1</v>
       </c>
       <c r="AJ22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK22">
         <v>9</v>
@@ -4539,10 +4482,10 @@
         <v>12</v>
       </c>
       <c r="AM22">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AN22">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -4554,13 +4497,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AS22">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AT22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU22">
         <v>7</v>
@@ -4569,28 +4512,28 @@
         <v>12</v>
       </c>
       <c r="AW22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX22">
         <v>0</v>
       </c>
       <c r="AY22">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AZ22">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="BA22">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="BB22">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="BC22">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55">
       <c r="A23" s="2">
         <v>37</v>
       </c>
@@ -4649,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="1">
-        <v>0.32120836674028808</v>
+        <v>0.3212083667402881</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4682,40 +4625,40 @@
         <v>1</v>
       </c>
       <c r="AG23" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AH23" s="1">
-        <v>0.27500000000000002</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="AI23" s="1">
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AL23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM23">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AN23">
         <v>35</v>
       </c>
       <c r="AO23">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR23">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AS23">
         <v>0</v>
@@ -4730,28 +4673,28 @@
         <v>3</v>
       </c>
       <c r="AW23">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AX23">
         <v>35</v>
       </c>
       <c r="AY23">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AZ23">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="BA23">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="BB23">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="BC23">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55">
       <c r="A24" s="2">
         <v>38</v>
       </c>
@@ -4807,10 +4750,10 @@
         <v>338</v>
       </c>
       <c r="S24" s="1">
-        <v>1.90578878916665E-2</v>
+        <v>0.0190578878916665</v>
       </c>
       <c r="T24" s="1">
-        <v>0.17680541571890149</v>
+        <v>0.1768054157189015</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4846,10 +4789,10 @@
         <v>0</v>
       </c>
       <c r="AG24" s="1">
-        <v>0.60869565217391308</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="AH24" s="1">
-        <v>0.27659574468085107</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="AI24" s="1">
         <v>0</v>
@@ -4861,10 +4804,10 @@
         <v>1</v>
       </c>
       <c r="AL24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM24">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AN24">
         <v>28</v>
@@ -4876,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="AQ24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR24">
         <v>13</v>
@@ -4894,7 +4837,7 @@
         <v>9</v>
       </c>
       <c r="AW24">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AX24">
         <v>28</v>
@@ -4903,10 +4846,10 @@
         <v>160</v>
       </c>
       <c r="AZ24">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="BA24">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="BB24">
         <v>160</v>
@@ -4915,7 +4858,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55">
       <c r="A25" s="2">
         <v>39</v>
       </c>
@@ -4971,7 +4914,7 @@
         <v>339</v>
       </c>
       <c r="S25" s="1">
-        <v>8.5746111672058294E-6</v>
+        <v>8.574611167205829E-06</v>
       </c>
       <c r="T25" s="1">
         <v>0.9931110098101692</v>
@@ -5004,22 +4947,22 @@
         <v>39</v>
       </c>
       <c r="AE25" s="1">
-        <v>7.6923076923076927E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AF25" s="1">
         <v>0.2857142857142857</v>
       </c>
       <c r="AG25" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AH25" s="1">
-        <v>0.69565217391304346</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="AI25" s="1">
         <v>1</v>
       </c>
       <c r="AJ25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK25">
         <v>7</v>
@@ -5028,10 +4971,10 @@
         <v>12</v>
       </c>
       <c r="AM25">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AN25">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO25">
         <v>2</v>
@@ -5043,13 +4986,13 @@
         <v>4</v>
       </c>
       <c r="AR25">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AS25">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AT25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -5058,28 +5001,28 @@
         <v>8</v>
       </c>
       <c r="AW25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX25">
         <v>0</v>
       </c>
       <c r="AY25">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="AZ25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA25">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BB25">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="BC25">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55">
       <c r="A26" s="2">
         <v>40</v>
       </c>
@@ -5162,13 +5105,13 @@
         <v>1</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AG26" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AH26" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="AI26" s="1">
         <v>0</v>
@@ -5183,10 +5126,10 @@
         <v>12</v>
       </c>
       <c r="AM26">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AN26">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO26">
         <v>36</v>
@@ -5213,28 +5156,28 @@
         <v>7</v>
       </c>
       <c r="AW26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX26">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AY26">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="AZ26">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="BA26">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="BB26">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="BC26">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55">
       <c r="A27" s="2">
         <v>41</v>
       </c>
@@ -5290,7 +5233,7 @@
         <v>340</v>
       </c>
       <c r="S27" s="1">
-        <v>6.4902034676255702E-3</v>
+        <v>0.00649020346762557</v>
       </c>
       <c r="T27" s="1">
         <v>0.3409694367475099</v>
@@ -5323,13 +5266,13 @@
         <v>1</v>
       </c>
       <c r="AF27" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AG27" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.37777777777777782</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="AI27" s="1">
         <v>0</v>
@@ -5341,13 +5284,13 @@
         <v>6</v>
       </c>
       <c r="AL27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM27">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AN27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27">
         <v>27</v>
@@ -5356,7 +5299,7 @@
         <v>4</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR27">
         <v>17</v>
@@ -5374,28 +5317,28 @@
         <v>2</v>
       </c>
       <c r="AW27">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AX27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY27">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="AZ27">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="BA27">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="BB27">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="BC27">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55">
       <c r="A28" s="2">
         <v>42</v>
       </c>
@@ -5451,10 +5394,10 @@
         <v>341</v>
       </c>
       <c r="S28" s="1">
-        <v>0.26964203441784601</v>
+        <v>0.269642034417846</v>
       </c>
       <c r="T28" s="1">
-        <v>9.4994107283424473E-2</v>
+        <v>0.09499410728342447</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -5487,13 +5430,13 @@
         <v>0</v>
       </c>
       <c r="AF28" s="1">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AG28" s="1">
-        <v>7.1428571428571425E-2</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.69565217391304346</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="AI28" s="1">
         <v>1</v>
@@ -5502,13 +5445,13 @@
         <v>39</v>
       </c>
       <c r="AK28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM28">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AN28">
         <v>35</v>
@@ -5523,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="AR28">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AS28">
         <v>35</v>
@@ -5532,10 +5475,10 @@
         <v>39</v>
       </c>
       <c r="AU28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW28">
         <v>14</v>
@@ -5544,22 +5487,22 @@
         <v>0</v>
       </c>
       <c r="AY28">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AZ28">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="BA28">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="BB28">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="BC28">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55">
       <c r="A29" s="2">
         <v>45</v>
       </c>
@@ -5615,10 +5558,10 @@
         <v>328</v>
       </c>
       <c r="S29" s="1">
-        <v>7.4848508092616398E-3</v>
+        <v>0.00748485080926164</v>
       </c>
       <c r="T29" s="1">
-        <v>0.28212272881999312</v>
+        <v>0.2821227288199931</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -5660,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="1">
-        <v>0.90909090909090906</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="AJ29">
         <v>18</v>
@@ -5672,10 +5615,10 @@
         <v>11</v>
       </c>
       <c r="AM29">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AN29">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -5690,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AT29">
         <v>18</v>
@@ -5702,28 +5645,28 @@
         <v>11</v>
       </c>
       <c r="AW29">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AX29">
         <v>4</v>
       </c>
       <c r="AY29">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AZ29">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="BA29">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="BB29">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="BC29">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55">
       <c r="A30" s="2">
         <v>46</v>
       </c>
@@ -5779,10 +5722,10 @@
         <v>342</v>
       </c>
       <c r="S30" s="1">
-        <v>0.28369010723486798</v>
+        <v>0.283690107234868</v>
       </c>
       <c r="T30" s="1">
-        <v>-0.65175462041006649</v>
+        <v>-0.6517546204100665</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -5821,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="1">
-        <v>0.89189189189189189</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="AJ30">
         <v>12</v>
@@ -5836,7 +5779,7 @@
         <v>39</v>
       </c>
       <c r="AN30">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -5851,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AT30">
         <v>12</v>
@@ -5869,22 +5812,22 @@
         <v>4</v>
       </c>
       <c r="AY30">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="AZ30">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="BA30">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="BB30">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="BC30">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55">
       <c r="A31" s="2">
         <v>48</v>
       </c>
@@ -5940,10 +5883,10 @@
         <v>343</v>
       </c>
       <c r="S31" s="1">
-        <v>0.29602197372668099</v>
+        <v>0.296021973726681</v>
       </c>
       <c r="T31" s="1">
-        <v>8.2460414047597172E-2</v>
+        <v>0.08246041404759717</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -5970,7 +5913,7 @@
         <v>39</v>
       </c>
       <c r="AE31" s="1">
-        <v>0.93939393939393945</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="AF31" s="1">
         <v>1</v>
@@ -5997,7 +5940,7 @@
         <v>40</v>
       </c>
       <c r="AN31">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AO31">
         <v>31</v>
@@ -6027,16 +5970,16 @@
         <v>26</v>
       </c>
       <c r="AX31">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AY31">
         <v>160</v>
       </c>
       <c r="AZ31">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="BA31">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="BB31">
         <v>160</v>
@@ -6045,7 +5988,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55">
       <c r="A32" s="2">
         <v>53</v>
       </c>
@@ -6101,10 +6044,10 @@
         <v>328</v>
       </c>
       <c r="S32" s="1">
-        <v>4.8035970601980102E-2</v>
+        <v>0.0480359706019801</v>
       </c>
       <c r="T32" s="1">
-        <v>0.44710950805631949</v>
+        <v>0.4471095080563195</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6140,10 +6083,10 @@
         <v>1</v>
       </c>
       <c r="AG32" s="1">
-        <v>0.84615384615384615</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AH32" s="1">
-        <v>0.26530612244897961</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AI32" s="1">
         <v>0</v>
@@ -6152,28 +6095,28 @@
         <v>14</v>
       </c>
       <c r="AK32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM32">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AN32">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AO32">
         <v>14</v>
       </c>
       <c r="AP32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS32">
         <v>0</v>
@@ -6188,28 +6131,28 @@
         <v>2</v>
       </c>
       <c r="AW32">
+        <v>30</v>
+      </c>
+      <c r="AX32">
         <v>36</v>
       </c>
-      <c r="AX32">
-        <v>41</v>
-      </c>
       <c r="AY32">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="AZ32">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="BA32">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="BB32">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="BC32">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55">
       <c r="A33" s="2">
         <v>54</v>
       </c>
@@ -6265,10 +6208,10 @@
         <v>328</v>
       </c>
       <c r="S33" s="1">
-        <v>8.1779097825898199E-3</v>
+        <v>0.00817790978258982</v>
       </c>
       <c r="T33" s="1">
-        <v>0.40520349099986003</v>
+        <v>0.40520349099986</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -6304,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="1">
-        <v>0.74358974358974361</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="AI33" s="1">
         <v>1</v>
@@ -6319,10 +6262,10 @@
         <v>10</v>
       </c>
       <c r="AM33">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AN33">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -6334,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS33">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AT33">
         <v>27</v>
@@ -6370,7 +6313,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55">
       <c r="A34" s="2">
         <v>55</v>
       </c>
@@ -6426,10 +6369,10 @@
         <v>328</v>
       </c>
       <c r="S34" s="1">
-        <v>0.37111052577027998</v>
+        <v>0.37111052577028</v>
       </c>
       <c r="T34" s="1">
-        <v>-0.57670799871640277</v>
+        <v>-0.5767079987164028</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -6456,7 +6399,7 @@
         <v>43</v>
       </c>
       <c r="AE34" s="1">
-        <v>0.88888888888888884</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="AF34" s="1">
         <v>1</v>
@@ -6465,13 +6408,13 @@
         <v>0.6</v>
       </c>
       <c r="AH34" s="1">
-        <v>0.51851851851851849</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="AI34" s="1">
         <v>0</v>
       </c>
       <c r="AJ34">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK34">
         <v>4</v>
@@ -6480,13 +6423,13 @@
         <v>10</v>
       </c>
       <c r="AM34">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AN34">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AO34">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP34">
         <v>4</v>
@@ -6510,28 +6453,28 @@
         <v>4</v>
       </c>
       <c r="AW34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AX34">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AY34">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="AZ34">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="BA34">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="BB34">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="BC34">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55">
       <c r="A35" s="2">
         <v>58</v>
       </c>
@@ -6590,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="T35" s="1">
-        <v>-2.9937059013373291</v>
+        <v>-2.993705901337329</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -6629,22 +6572,22 @@
         <v>0</v>
       </c>
       <c r="AI35" s="1">
-        <v>1</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="AJ35">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AK35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL35">
         <v>10</v>
       </c>
       <c r="AM35">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AN35">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -6659,28 +6602,28 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AT35">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AU35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV35">
         <v>10</v>
       </c>
       <c r="AW35">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AX35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY35">
         <v>160</v>
       </c>
       <c r="AZ35">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="BA35">
         <v>160</v>
@@ -6692,7 +6635,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55">
       <c r="A36" s="2">
         <v>59</v>
       </c>
@@ -6751,7 +6694,7 @@
         <v>0.897043097443461</v>
       </c>
       <c r="T36" s="1">
-        <v>-1.2364461827917179</v>
+        <v>-1.236446182791718</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -6790,22 +6733,22 @@
         <v>0</v>
       </c>
       <c r="AI36" s="1">
-        <v>1</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="AJ36">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AK36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL36">
         <v>10</v>
       </c>
       <c r="AM36">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AN36">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO36">
         <v>0</v>
@@ -6820,28 +6763,28 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AT36">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AU36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV36">
         <v>10</v>
       </c>
       <c r="AW36">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AX36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY36">
         <v>160</v>
       </c>
       <c r="AZ36">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="BA36">
         <v>160</v>
@@ -6853,7 +6796,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55">
       <c r="A37" s="2">
         <v>61</v>
       </c>
@@ -6909,10 +6852,10 @@
         <v>328</v>
       </c>
       <c r="S37" s="1">
-        <v>0.63495974282897305</v>
+        <v>0.6349597428289731</v>
       </c>
       <c r="T37" s="1">
-        <v>-0.84789005410681939</v>
+        <v>-0.8478900541068194</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -6945,7 +6888,7 @@
         <v>42</v>
       </c>
       <c r="AE37" s="1">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AF37" s="1">
         <v>0</v>
@@ -6960,19 +6903,19 @@
         <v>0</v>
       </c>
       <c r="AJ37">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM37">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AN37">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AO37">
         <v>10</v>
@@ -6990,37 +6933,37 @@
         <v>0</v>
       </c>
       <c r="AT37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW37">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AX37">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AY37">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="AZ37">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="BA37">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="BB37">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="BC37">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55">
       <c r="A38" s="2">
         <v>62</v>
       </c>
@@ -7076,10 +7019,10 @@
         <v>346</v>
       </c>
       <c r="S38" s="1">
-        <v>0.21451976367870701</v>
+        <v>0.214519763678707</v>
       </c>
       <c r="T38" s="1">
-        <v>-0.34571079467903632</v>
+        <v>-0.3457107946790363</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -7106,13 +7049,13 @@
         <v>39</v>
       </c>
       <c r="AE38" s="1">
-        <v>6.8965517241379309E-2</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="AF38" s="1">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="1">
         <v>0.75</v>
@@ -7121,67 +7064,67 @@
         <v>1</v>
       </c>
       <c r="AJ38">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK38">
+        <v>6</v>
+      </c>
+      <c r="AL38">
         <v>8</v>
       </c>
-      <c r="AL38">
-        <v>10</v>
-      </c>
       <c r="AM38">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AN38">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AO38">
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR38">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AS38">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AT38">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV38">
         <v>8</v>
       </c>
       <c r="AW38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX38">
         <v>0</v>
       </c>
       <c r="AY38">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="AZ38">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="BA38">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="BB38">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="BC38">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55">
       <c r="A39" s="2">
         <v>63</v>
       </c>
@@ -7237,10 +7180,10 @@
         <v>346</v>
       </c>
       <c r="S39" s="1">
-        <v>0.21451976367870701</v>
+        <v>0.214519763678707</v>
       </c>
       <c r="T39" s="1">
-        <v>-0.34571079467903632</v>
+        <v>-0.3457107946790363</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -7270,37 +7213,37 @@
         <v>39</v>
       </c>
       <c r="AE39" s="1">
-        <v>0.92592592592592593</v>
+        <v>0.92</v>
       </c>
       <c r="AF39" s="1">
         <v>1</v>
       </c>
       <c r="AG39" s="1">
-        <v>0.76923076923076927</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AH39" s="1">
-        <v>0.26</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="AI39" s="1">
         <v>0</v>
       </c>
       <c r="AJ39">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK39">
         <v>3</v>
       </c>
       <c r="AL39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM39">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AN39">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AO39">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP39">
         <v>3</v>
@@ -7309,7 +7252,7 @@
         <v>10</v>
       </c>
       <c r="AR39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS39">
         <v>0</v>
@@ -7321,22 +7264,22 @@
         <v>0</v>
       </c>
       <c r="AV39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW39">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AX39">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AY39">
         <v>160</v>
       </c>
       <c r="AZ39">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="BA39">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="BB39">
         <v>160</v>
@@ -7345,7 +7288,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55">
       <c r="A40" s="2">
         <v>64</v>
       </c>
@@ -7401,10 +7344,10 @@
         <v>347</v>
       </c>
       <c r="S40" s="1">
-        <v>0.43980306418682302</v>
+        <v>0.439803064186823</v>
       </c>
       <c r="T40" s="1">
-        <v>-0.60128107619654858</v>
+        <v>-0.6012810761965486</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -7440,31 +7383,31 @@
         <v>0</v>
       </c>
       <c r="AG40" s="1">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AH40" s="1">
-        <v>0.23529411764705879</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="AI40" s="1">
         <v>0</v>
       </c>
       <c r="AJ40">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK40">
         <v>2</v>
       </c>
       <c r="AL40">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AM40">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AN40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO40">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP40">
         <v>0</v>
@@ -7485,31 +7428,31 @@
         <v>2</v>
       </c>
       <c r="AV40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW40">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY40">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AZ40">
         <v>78</v>
       </c>
       <c r="BA40">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="BB40">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BC40">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55">
       <c r="A41" s="2">
         <v>65</v>
       </c>
@@ -7595,25 +7538,25 @@
         <v>0</v>
       </c>
       <c r="AH41" s="1">
-        <v>0.60526315789473684</v>
+        <v>0.6</v>
       </c>
       <c r="AI41" s="1">
         <v>1</v>
       </c>
       <c r="AJ41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK41">
         <v>8</v>
       </c>
       <c r="AL41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AM41">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AN41">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AO41">
         <v>0</v>
@@ -7625,43 +7568,43 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS41">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AT41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU41">
         <v>6</v>
       </c>
       <c r="AV41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX41">
         <v>0</v>
       </c>
       <c r="AY41">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="AZ41">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="BA41">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="BB41">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="BC41">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55">
       <c r="A42" s="2">
         <v>67</v>
       </c>
@@ -7750,13 +7693,13 @@
         <v>0.4</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.58139534883720934</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AI42" s="1">
         <v>0</v>
       </c>
       <c r="AJ42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK42">
         <v>2</v>
@@ -7765,13 +7708,13 @@
         <v>15</v>
       </c>
       <c r="AM42">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AN42">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AO42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP42">
         <v>2</v>
@@ -7780,7 +7723,7 @@
         <v>6</v>
       </c>
       <c r="AR42">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS42">
         <v>0</v>
@@ -7798,25 +7741,25 @@
         <v>18</v>
       </c>
       <c r="AX42">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AY42">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AZ42">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BA42">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BB42">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BC42">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55">
       <c r="A43" s="2">
         <v>68</v>
       </c>
@@ -7872,10 +7815,10 @@
         <v>349</v>
       </c>
       <c r="S43" s="1">
-        <v>6.1340922485089303E-3</v>
+        <v>0.00613409224850893</v>
       </c>
       <c r="T43" s="1">
-        <v>0.36241747783592099</v>
+        <v>0.362417477835921</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -7911,16 +7854,16 @@
         <v>0</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.14285714285714279</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AH43" s="1">
         <v>0</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.82692307692307687</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="AJ43">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK43">
         <v>5</v>
@@ -7929,10 +7872,10 @@
         <v>14</v>
       </c>
       <c r="AM43">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AN43">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AO43">
         <v>0</v>
@@ -7947,10 +7890,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AT43">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -7959,28 +7902,28 @@
         <v>12</v>
       </c>
       <c r="AW43">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AX43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY43">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AZ43">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BA43">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="BB43">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="BC43">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55">
       <c r="A44" s="2">
         <v>69</v>
       </c>
@@ -8036,10 +7979,10 @@
         <v>349</v>
       </c>
       <c r="S44" s="1">
-        <v>6.1340922485089303E-3</v>
+        <v>0.00613409224850893</v>
       </c>
       <c r="T44" s="1">
-        <v>0.36241747783592099</v>
+        <v>0.362417477835921</v>
       </c>
       <c r="U44">
         <v>1</v>
@@ -8048,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="X44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -8063,7 +8006,7 @@
         <v>43</v>
       </c>
       <c r="AC44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AD44" t="s">
         <v>43</v>
@@ -8078,13 +8021,13 @@
         <v>0.5</v>
       </c>
       <c r="AH44" s="1">
-        <v>0.51724137931034486</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="AI44" s="1">
         <v>0</v>
       </c>
       <c r="AJ44">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK44">
         <v>5</v>
@@ -8093,13 +8036,13 @@
         <v>16</v>
       </c>
       <c r="AM44">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AN44">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AO44">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AP44">
         <v>5</v>
@@ -8108,7 +8051,7 @@
         <v>8</v>
       </c>
       <c r="AR44">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AS44">
         <v>0</v>
@@ -8123,28 +8066,28 @@
         <v>8</v>
       </c>
       <c r="AW44">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX44">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AY44">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AZ44">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BA44">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BB44">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="BC44">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55">
       <c r="A45" s="2">
         <v>71</v>
       </c>
@@ -8208,9 +8151,6 @@
       <c r="U45">
         <v>0</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
       <c r="X45">
         <v>1</v>
       </c>
@@ -8239,10 +8179,10 @@
         <v>0</v>
       </c>
       <c r="AG45" s="1">
-        <v>0.45</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AH45" s="1">
-        <v>0.77419354838709675</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="AI45" s="1">
         <v>1</v>
@@ -8254,13 +8194,13 @@
         <v>6</v>
       </c>
       <c r="AL45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM45">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AN45">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO45">
         <v>0</v>
@@ -8272,10 +8212,10 @@
         <v>9</v>
       </c>
       <c r="AR45">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AS45">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT45">
         <v>13</v>
@@ -8284,7 +8224,7 @@
         <v>6</v>
       </c>
       <c r="AV45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW45">
         <v>7</v>
@@ -8293,22 +8233,22 @@
         <v>0</v>
       </c>
       <c r="AY45">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="AZ45">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BA45">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="BB45">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="BC45">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55">
       <c r="A46" s="2">
         <v>75</v>
       </c>
@@ -8364,10 +8304,10 @@
         <v>351</v>
       </c>
       <c r="S46" s="1">
-        <v>0.63589949120939704</v>
+        <v>0.635899491209397</v>
       </c>
       <c r="T46" s="1">
-        <v>-0.85406649965839354</v>
+        <v>-0.8540664996583935</v>
       </c>
       <c r="U46">
         <v>1</v>
@@ -8397,40 +8337,40 @@
         <v>1</v>
       </c>
       <c r="AF46" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="AG46" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AH46" s="1">
-        <v>0.36363636363636359</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="AI46" s="1">
         <v>0</v>
       </c>
       <c r="AJ46">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM46">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AN46">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AO46">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR46">
         <v>20</v>
@@ -8448,16 +8388,16 @@
         <v>2</v>
       </c>
       <c r="AW46">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AX46">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AY46">
         <v>160</v>
       </c>
       <c r="AZ46">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="BA46">
         <v>0</v>
@@ -8469,7 +8409,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55">
       <c r="A47" s="2">
         <v>76</v>
       </c>
@@ -8525,10 +8465,10 @@
         <v>351</v>
       </c>
       <c r="S47" s="1">
-        <v>0.63589949120939704</v>
+        <v>0.635899491209397</v>
       </c>
       <c r="T47" s="1">
-        <v>-0.85406649965839354</v>
+        <v>-0.8540664996583935</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -8564,28 +8504,28 @@
         <v>0</v>
       </c>
       <c r="AG47" s="1">
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AH47" s="1">
-        <v>0.58974358974358976</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="AI47" s="1">
         <v>1</v>
       </c>
       <c r="AJ47">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AK47">
         <v>6</v>
       </c>
       <c r="AL47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM47">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AN47">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AO47">
         <v>0</v>
@@ -8594,16 +8534,16 @@
         <v>0</v>
       </c>
       <c r="AQ47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR47">
         <v>23</v>
       </c>
       <c r="AS47">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AT47">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AU47">
         <v>6</v>
@@ -8612,37 +8552,48 @@
         <v>7</v>
       </c>
       <c r="AW47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX47">
         <v>0</v>
       </c>
       <c r="AY47">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="AZ47">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="BA47">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="BB47">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="BC47">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:BC47" xr:uid="{2A2BE216-1C97-465A-A801-78F6DD7D15F6}">
-    <filterColumn colId="2">
-      <customFilters and="1">
-        <customFilter operator="greaterThan" val="500000"/>
-        <customFilter operator="lessThan" val="1000000"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="35">
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BC1"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AT2:AX2"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AK3:AN3"/>
+    <mergeCell ref="AP3:AS3"/>
     <mergeCell ref="AU3:AX3"/>
     <mergeCell ref="AZ3:BC3"/>
     <mergeCell ref="V4:W4"/>
@@ -8659,32 +8610,15 @@
     <mergeCell ref="AW4:AX4"/>
     <mergeCell ref="AZ4:BA4"/>
     <mergeCell ref="BB4:BC4"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AK3:AN3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BC1"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AT2:AX2"/>
-    <mergeCell ref="AY2:BC2"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="AE7:AI1496">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="6" tint="0.59999389629810485"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -8692,9 +8626,9 @@
   <conditionalFormatting sqref="U7:Y1496">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
